--- a/medicine/Psychotrope/Privatbrauerei_Eibau/Privatbrauerei_Eibau.xlsx
+++ b/medicine/Psychotrope/Privatbrauerei_Eibau/Privatbrauerei_Eibau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Privatbrauerei Eibau i.Sa. GmbH est une brasserie à Eibau, devenu en 2013 un quartier de Kottmar.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie rurale d'Eibau est fondée à l'initiative de la Bierbürgerschaft Zittau afin de faciliter l'approvisionnement en bière des villages éloignés de Zittau. Cette décision est prise dès 1786, mais comme la construction a des coûts non négligeables, la brasserie rurale d'Eibau n'est créée qu'en 1810 et obtient des droits de brassage. Dans l'intervalle, Ebersbach demande sans succès les droits de la brasserie pour la région en 1786 et 1802. Au départ, une partie de l'eau de brassage provient du moulin du Beckenberg, à 500 mètres de là, et est acheminée par des tuyaux en bois jusqu'à la brasserie. La brasserie brûle en 1863. 
 Gustav Adolf Theodor Krampf achète la brasserie après sa reconstruction. De 1900 à 1907, elle produit de la Malzbier au caramel (Eibauer Porter avec environ 2,5% vol. D'alcool), et c'est ainsi que la brasserie connaît son apogée. Le 29 janvier 1937, le maître brasseur Hans Münch acquiert la brasserie d'Eibau, qu'il dirige jusqu'en 1972.
@@ -546,7 +560,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Eibauer Privatbrauerei produit les types de bière suivants :
 Eibauer Schwarzbier
